--- a/data/elementData.xlsx
+++ b/data/elementData.xlsx
@@ -1,129 +1,437 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\Web_AutoTest\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="21270" windowHeight="11310"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="loginpage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>locationType</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>跳转登录页面</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>/html/body/nav/div/div[2]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>切换密码登录</t>
+  </si>
+  <si>
+    <t>//*[@id="login_span_type_pwd"]</t>
+  </si>
+  <si>
+    <t>输入手机号</t>
+  </si>
+  <si>
+    <t>// *[@id = "login_id_input_phone"]</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>//*[@id ="login_id_input_password"]</t>
+  </si>
+  <si>
+    <t>确定登录</t>
+  </si>
+  <si>
+    <t>//*[@id="login_id_login"]</t>
+  </si>
+  <si>
     <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/nav/div/div[2]/ul/li[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换密码登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="login_span_type_pwd"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// *[@id = "login_id_input_phone"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id ="login_id_input_password"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="login_id_login"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>locationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class = "dropdown-toggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class = "dropdown-toggle"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,28 +439,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,7 +798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -236,7 +833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,114 +1007,127 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/elementData.xlsx
+++ b/data/elementData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21270" windowHeight="11310"/>
+    <workbookView windowWidth="15255" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
+    <sheet name="addcompany" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -31,7 +32,7 @@
     <t>跳转登录页面</t>
   </si>
   <si>
-    <t>path</t>
+    <t>xpath</t>
   </si>
   <si>
     <t>/html/body/nav/div/div[2]/ul/li[2]/a</t>
@@ -65,6 +66,45 @@
   </si>
   <si>
     <t>//*[@class = "dropdown-toggle"]</t>
+  </si>
+  <si>
+    <t>点击展开公司列表</t>
+  </si>
+  <si>
+    <t>//*[@class = "company-name"]</t>
+  </si>
+  <si>
+    <t>点击添加公司按钮</t>
+  </si>
+  <si>
+    <t>//*[@class = "lnr lnr-plus-circle"]</t>
+  </si>
+  <si>
+    <t>公司名称输入框</t>
+  </si>
+  <si>
+    <t>//*[@class = "form-control"]</t>
+  </si>
+  <si>
+    <t>确认添加公司</t>
+  </si>
+  <si>
+    <t>//*[@class = "btn btn-primary"]</t>
+  </si>
+  <si>
+    <t>弹框提示公司已存在</t>
+  </si>
+  <si>
+    <t>//*[@class = "layui-layer-content layui-layer-padding"]</t>
+  </si>
+  <si>
+    <t>首页名称</t>
+  </si>
+  <si>
+    <t>我的账户</t>
+  </si>
+  <si>
+    <t>/html/body/nav/div/div[2]/ul/li[2]/ul/li[1]/a</t>
   </si>
 </sst>
 </file>
@@ -72,12 +112,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +127,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -94,6 +141,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -102,15 +179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,43 +201,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,61 +269,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -246,6 +279,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -258,175 +393,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,17 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +499,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -481,11 +534,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,186 +570,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,8 +1048,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1130,4 +1163,138 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/elementData.xlsx
+++ b/data/elementData.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="11310" activeTab="1"/>
+    <workbookView windowWidth="20775" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="addcompany" sheetId="2" r:id="rId2"/>
+    <sheet name="new_pswData" sheetId="3" r:id="rId3"/>
+    <sheet name="register" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -50,7 +52,7 @@
     <t>// *[@id = "login_id_input_phone"]</t>
   </si>
   <si>
-    <t>输入密码</t>
+    <t>输入密码/验证码</t>
   </si>
   <si>
     <t>//*[@id ="login_id_input_password"]</t>
@@ -68,6 +70,84 @@
     <t>//*[@class = "dropdown-toggle"]</t>
   </si>
   <si>
+    <t>点击获取验证码</t>
+  </si>
+  <si>
+    <t>//*[@id = "login_button_get_sms_code"]</t>
+  </si>
+  <si>
+    <t>点击忘记密码</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/form/div[1]/div[5]/a</t>
+  </si>
+  <si>
+    <t>输入新密码</t>
+  </si>
+  <si>
+    <t>//*[@id = "login_id_input_password_new"]</t>
+  </si>
+  <si>
+    <t>点击立即注册</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div/form/div[2]/a</t>
+  </si>
+  <si>
+    <t>输入注册手机号</t>
+  </si>
+  <si>
+    <t>//*[@id = "user-phone-input"]</t>
+  </si>
+  <si>
+    <t>输入注册密码</t>
+  </si>
+  <si>
+    <t>//*[@id = "password-input"]</t>
+  </si>
+  <si>
+    <t>输入注册用户名</t>
+  </si>
+  <si>
+    <t>//*[@id = "user-name-input"]</t>
+  </si>
+  <si>
+    <t>点击注册获取验证码</t>
+  </si>
+  <si>
+    <t>//*[@id = "v-code-btn"]</t>
+  </si>
+  <si>
+    <t>输入注册验证码</t>
+  </si>
+  <si>
+    <t>//*[@id = "v-code-input"]</t>
+  </si>
+  <si>
+    <t>勾选同意服务协议框</t>
+  </si>
+  <si>
+    <t>//*[@class = "ui-checkbox wyydfwxy"]</t>
+  </si>
+  <si>
+    <t>确定注册按钮</t>
+  </si>
+  <si>
+    <t>//*[@id = "register-button"]</t>
+  </si>
+  <si>
+    <t>返回首页</t>
+  </si>
+  <si>
+    <t>/html/body/nav/div/div[1]/a/span/span[1]</t>
+  </si>
+  <si>
+    <t>点击退出按钮</t>
+  </si>
+  <si>
+    <t>/html/body/nav/div/div[2]/ul/li[2]/ul/li[4]/a</t>
+  </si>
+  <si>
     <t>点击展开公司列表</t>
   </si>
   <si>
@@ -105,6 +185,21 @@
   </si>
   <si>
     <t>/html/body/nav/div/div[2]/ul/li[2]/ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>a123456</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>psw</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>测试数据1</t>
   </si>
 </sst>
 </file>
@@ -112,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,6 +221,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -133,22 +229,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,8 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,7 +304,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,91 +364,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -279,187 +374,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,9 +570,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,35 +605,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,16 +652,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +685,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,18 +1141,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1076,7 +1171,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1089,8 +1184,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1103,8 +1198,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1117,8 +1212,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1131,8 +1226,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1145,8 +1240,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1156,6 +1251,188 @@
       </c>
       <c r="D7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1447,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1200,13 +1477,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1214,13 +1491,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1228,13 +1505,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1242,13 +1519,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1256,13 +1533,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1270,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1284,13 +1561,89 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>18782038100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/elementData.xlsx
+++ b/data/elementData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20775" windowHeight="11310"/>
+    <workbookView windowWidth="20775" windowHeight="11310" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="addcompany" sheetId="2" r:id="rId2"/>
     <sheet name="new_pswData" sheetId="3" r:id="rId3"/>
     <sheet name="register" sheetId="4" r:id="rId4"/>
+    <sheet name="logindata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -200,6 +201,30 @@
   </si>
   <si>
     <t>测试数据1</t>
+  </si>
+  <si>
+    <t>except_result</t>
+  </si>
+  <si>
+    <t>18782038145</t>
+  </si>
+  <si>
+    <t>陈嘻嘻</t>
+  </si>
+  <si>
+    <t>请输入密码</t>
+  </si>
+  <si>
+    <t>a23456</t>
+  </si>
+  <si>
+    <t>请输入手机号码</t>
+  </si>
+  <si>
+    <t>a12345678</t>
+  </si>
+  <si>
+    <t>手机号码或密码错误</t>
   </si>
 </sst>
 </file>
@@ -207,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -218,6 +243,20 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,7 +269,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -238,7 +277,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,28 +322,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,7 +345,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -296,31 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,22 +389,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -374,55 +399,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,13 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,109 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,30 +614,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -630,8 +631,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,138 +710,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1143,7 +1171,7 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1170,7 +1198,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1184,7 +1212,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1198,7 +1226,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1212,7 +1240,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1226,7 +1254,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1240,7 +1268,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1254,7 +1282,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1268,7 +1296,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1282,7 +1310,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1296,7 +1324,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1650,4 +1678,156 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.25"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/elementData.xlsx
+++ b/data/elementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20775" windowHeight="11310" activeTab="4"/>
+    <workbookView windowWidth="12855" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>id</t>
   </si>
@@ -233,9 +233,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -247,14 +247,136 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,128 +389,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -399,19 +399,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,163 +555,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,26 +590,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,24 +604,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,17 +623,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +646,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -698,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,133 +710,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,7 +1464,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1475,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1556,7 +1556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="15" customHeight="1" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1685,7 +1685,7 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1722,7 +1722,6 @@
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B3"/>
       <c r="C3" t="s">
         <v>64</v>
       </c>
@@ -1738,7 +1737,6 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5"/>
       <c r="C5" t="s">
         <v>66</v>
       </c>

--- a/data/elementData.xlsx
+++ b/data/elementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12855" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="23115" windowHeight="11790" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="new_pswData" sheetId="3" r:id="rId3"/>
     <sheet name="register" sheetId="4" r:id="rId4"/>
     <sheet name="logindata" sheetId="5" r:id="rId5"/>
+    <sheet name="company_name" sheetId="6" r:id="rId6"/>
+    <sheet name="add_contract" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -225,6 +227,36 @@
   </si>
   <si>
     <t>手机号码或密码错误</t>
+  </si>
+  <si>
+    <t>请输入您的公司全称</t>
+  </si>
+  <si>
+    <t>金控集团1</t>
+  </si>
+  <si>
+    <t>金控集团2</t>
+  </si>
+  <si>
+    <t>金控集团3</t>
+  </si>
+  <si>
+    <t>添加公司已经存在</t>
+  </si>
+  <si>
+    <t>成都知道创宇信息技术有限公司</t>
+  </si>
+  <si>
+    <t>该企业已经被认证</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>appraise</t>
   </si>
 </sst>
 </file>
@@ -233,9 +265,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -243,13 +275,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +308,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,31 +345,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,41 +401,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,9 +415,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,19 +437,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,73 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,79 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,9 +657,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,8 +702,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,26 +722,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -698,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,139 +742,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1198,7 +1233,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1212,7 +1247,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1226,7 +1261,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1240,7 +1275,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1254,7 +1289,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1268,7 +1303,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1282,7 +1317,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1296,7 +1331,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1310,7 +1345,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1324,7 +1359,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1475,7 +1510,7 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1686,7 +1721,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1708,7 +1743,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B2" t="s">
@@ -1719,7 +1754,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C3" t="s">
@@ -1727,7 +1762,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>65</v>
       </c>
@@ -1736,13 +1771,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="C5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B6" t="s">
@@ -1753,76 +1788,187 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
